--- a/doc/submission/Supplementary_tables.xlsx
+++ b/doc/submission/Supplementary_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamklie/Desktop/lab/projects/predictMEE/doc/submission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8646E2C-CD1D-CC48-ACB9-4438E117CB18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE881326-957B-6D42-B467-F5982B59E260}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15940" activeTab="2" xr2:uid="{5574C43E-B0C1-AA44-A299-7056C8F9E151}"/>
+    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{5574C43E-B0C1-AA44-A299-7056C8F9E151}"/>
   </bookViews>
   <sheets>
     <sheet name="Supp_Table1" sheetId="2" r:id="rId1"/>
@@ -3058,16 +3058,16 @@
     <t>32% Streptococcus mutans UA159 69</t>
   </si>
   <si>
-    <t>actual</t>
-  </si>
-  <si>
-    <t>recovered_txt</t>
-  </si>
-  <si>
-    <t>orig_text</t>
-  </si>
-  <si>
-    <t>predicted</t>
+    <t>TITLE</t>
+  </si>
+  <si>
+    <t>Predicted</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Category Name</t>
   </si>
 </sst>
 </file>
@@ -3159,6 +3159,13 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -3182,13 +3189,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3203,7 +3203,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{029C3571-22F2-5446-A472-C8D85DC897C8}" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{029C3571-22F2-5446-A472-C8D85DC897C8}" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="0">
   <autoFilter ref="A1:E12" xr:uid="{D0564FB9-D2D9-A844-9F21-7953EAA061E3}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{4509E8B6-F1F0-F840-9D27-679AA7D4E905}" name="Class Name"/>
@@ -3515,7 +3515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A143AC0-0CD7-934E-A80C-20FDA00F185D}">
   <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -4690,13 +4690,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD59906-4BAE-0445-AB8E-7BD5EDE2ECA7}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
     <col min="2" max="2" width="43.33203125" style="6" customWidth="1"/>
     <col min="3" max="3" width="20.1640625" style="6" customWidth="1"/>
     <col min="4" max="4" width="21.1640625" style="6" customWidth="1"/>
@@ -4707,13 +4707,13 @@
         <v>1010</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1008</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17">
@@ -4772,7 +4772,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17">
+    <row r="6" spans="1:4" ht="34">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17">
+    <row r="7" spans="1:4" ht="34">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="17">
+    <row r="9" spans="1:4" ht="34">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="17">
+    <row r="12" spans="1:4" ht="34">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="17">
+    <row r="32" spans="1:4" ht="34">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -5262,7 +5262,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="17">
+    <row r="41" spans="1:4" ht="34">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="17">
+    <row r="60" spans="1:4" ht="34">
       <c r="A60" t="s">
         <v>16</v>
       </c>
@@ -6060,7 +6060,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="17">
+    <row r="98" spans="1:4" ht="34">
       <c r="A98" t="s">
         <v>16</v>
       </c>
@@ -6186,7 +6186,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="17">
+    <row r="107" spans="1:4" ht="34">
       <c r="A107" t="s">
         <v>37</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="17">
+    <row r="108" spans="1:4" ht="34">
       <c r="A108" t="s">
         <v>37</v>
       </c>
@@ -6214,7 +6214,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="17">
+    <row r="109" spans="1:4" ht="34">
       <c r="A109" t="s">
         <v>37</v>
       </c>
@@ -6326,7 +6326,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="17">
+    <row r="117" spans="1:4" ht="34">
       <c r="A117" t="s">
         <v>37</v>
       </c>
@@ -6396,7 +6396,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="34">
+    <row r="122" spans="1:4" ht="51">
       <c r="A122" t="s">
         <v>37</v>
       </c>
@@ -6732,7 +6732,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="17">
+    <row r="146" spans="1:4" ht="34">
       <c r="A146" t="s">
         <v>37</v>
       </c>
@@ -6788,7 +6788,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="17">
+    <row r="150" spans="1:4" ht="34">
       <c r="A150" t="s">
         <v>37</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="17">
+    <row r="160" spans="1:4" ht="34">
       <c r="A160" t="s">
         <v>37</v>
       </c>
@@ -6942,7 +6942,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="17">
+    <row r="161" spans="1:4" ht="34">
       <c r="A161" t="s">
         <v>37</v>
       </c>
@@ -6984,7 +6984,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="17">
+    <row r="164" spans="1:4" ht="34">
       <c r="A164" t="s">
         <v>37</v>
       </c>
@@ -7012,7 +7012,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="17">
+    <row r="166" spans="1:4" ht="34">
       <c r="A166" t="s">
         <v>37</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="17">
+    <row r="167" spans="1:4" ht="34">
       <c r="A167" t="s">
         <v>37</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="17">
+    <row r="168" spans="1:4" ht="34">
       <c r="A168" t="s">
         <v>37</v>
       </c>
@@ -7054,7 +7054,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="17">
+    <row r="169" spans="1:4" ht="34">
       <c r="A169" t="s">
         <v>37</v>
       </c>
@@ -7068,7 +7068,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="34">
+    <row r="170" spans="1:4" ht="51">
       <c r="A170" t="s">
         <v>37</v>
       </c>
@@ -7082,7 +7082,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="17">
+    <row r="171" spans="1:4" ht="34">
       <c r="A171" t="s">
         <v>37</v>
       </c>
@@ -7096,7 +7096,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="17">
+    <row r="172" spans="1:4" ht="34">
       <c r="A172" t="s">
         <v>37</v>
       </c>
@@ -7110,7 +7110,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="17">
+    <row r="173" spans="1:4" ht="34">
       <c r="A173" t="s">
         <v>37</v>
       </c>
@@ -7124,7 +7124,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="17">
+    <row r="174" spans="1:4" ht="34">
       <c r="A174" t="s">
         <v>37</v>
       </c>
@@ -7461,7 +7461,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="17">
+    <row r="198" spans="1:4" ht="34">
       <c r="A198" t="s">
         <v>50</v>
       </c>
@@ -7475,7 +7475,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="17">
+    <row r="199" spans="1:4" ht="34">
       <c r="A199" t="s">
         <v>50</v>
       </c>
@@ -7643,7 +7643,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="51">
+    <row r="211" spans="1:4" ht="68">
       <c r="A211" t="s">
         <v>50</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="17">
+    <row r="224" spans="1:4" ht="34">
       <c r="A224" t="s">
         <v>58</v>
       </c>
@@ -7979,7 +7979,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="17">
+    <row r="235" spans="1:4" ht="34">
       <c r="A235" t="s">
         <v>64</v>
       </c>
@@ -8245,7 +8245,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="17">
+    <row r="254" spans="1:4" ht="34">
       <c r="A254" t="s">
         <v>64</v>
       </c>
@@ -8259,7 +8259,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="17">
+    <row r="255" spans="1:4" ht="34">
       <c r="A255" t="s">
         <v>64</v>
       </c>
@@ -8861,7 +8861,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="17">
+    <row r="298" spans="1:4" ht="34">
       <c r="A298" t="s">
         <v>64</v>
       </c>
@@ -8875,7 +8875,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="17">
+    <row r="299" spans="1:4" ht="34">
       <c r="A299" t="s">
         <v>64</v>
       </c>
